--- a/results/comparaison/retardance_prism_cv.xlsx
+++ b/results/comparaison/retardance_prism_cv.xlsx
@@ -1566,645 +1566,1098 @@
       <c r="GO2">
         <v>1</v>
       </c>
+      <c r="GP2">
+        <v>1</v>
+      </c>
+      <c r="GQ2">
+        <v>1</v>
+      </c>
+      <c r="GR2">
+        <v>1</v>
+      </c>
+      <c r="GS2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:201">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.4497027858872102</v>
-      </c>
       <c r="C3">
-        <v>0.4635744659042486</v>
+        <v>1.033441190849662</v>
       </c>
       <c r="D3">
-        <v>0.528983171019666</v>
+        <v>0.9858322345825852</v>
       </c>
       <c r="E3">
-        <v>0.4026528857632409</v>
-      </c>
-      <c r="F3">
-        <v>0.5670897805570139</v>
-      </c>
-      <c r="G3">
-        <v>0.4608962561516218</v>
+        <v>0.4289397587839612</v>
       </c>
       <c r="H3">
-        <v>0.2801429507211547</v>
+        <v>2.555011118348202</v>
       </c>
       <c r="I3">
-        <v>1.398522012346104</v>
+        <v>0.2685824135910474</v>
+      </c>
+      <c r="J3">
+        <v>0.4121478834841097</v>
+      </c>
+      <c r="K3">
+        <v>0.5076287721427749</v>
       </c>
       <c r="L3">
-        <v>0.6315012047735685</v>
+        <v>0.7558730588216618</v>
+      </c>
+      <c r="M3">
+        <v>0.3946877053758666</v>
       </c>
       <c r="N3">
-        <v>0.5784012047857989</v>
+        <v>0.2373165530533119</v>
+      </c>
+      <c r="O3">
+        <v>1.404777505044065</v>
       </c>
       <c r="P3">
-        <v>0.4558175896725148</v>
-      </c>
-      <c r="R3">
-        <v>0.5514844172565111</v>
-      </c>
-      <c r="S3">
-        <v>0.6852301783916273</v>
+        <v>0.7338529689355784</v>
+      </c>
+      <c r="Q3">
+        <v>0.5403355647480003</v>
       </c>
       <c r="T3">
-        <v>0.7404910540717358</v>
+        <v>0.938669961461605</v>
+      </c>
+      <c r="U3">
+        <v>0.8634321610833305</v>
       </c>
       <c r="V3">
-        <v>1.053716992557365</v>
-      </c>
-      <c r="X3">
-        <v>2.24468139872254</v>
+        <v>0.3438380428806008</v>
+      </c>
+      <c r="W3">
+        <v>0.5317853918331181</v>
       </c>
       <c r="Y3">
-        <v>0.5753207082832285</v>
+        <v>1.011821975570489</v>
       </c>
       <c r="Z3">
-        <v>0.3152306622427828</v>
-      </c>
-      <c r="AB3">
-        <v>0.8137794335912211</v>
+        <v>0.6861107490460381</v>
+      </c>
+      <c r="AA3">
+        <v>0.6759264971869592</v>
       </c>
       <c r="AC3">
-        <v>0.4932722573453017</v>
+        <v>1.153716908325523</v>
       </c>
       <c r="AD3">
-        <v>0.4217829918727813</v>
-      </c>
-      <c r="AE3">
-        <v>1.285350016284193</v>
+        <v>0.8789254443408183</v>
       </c>
       <c r="AF3">
-        <v>0.7500076244254856</v>
+        <v>1.697484055149412</v>
       </c>
       <c r="AG3">
-        <v>0.4659463168360918</v>
-      </c>
-      <c r="AH3">
-        <v>0.3751308716814664</v>
+        <v>1.051771502832996</v>
       </c>
       <c r="AI3">
-        <v>0.8665357579336415</v>
+        <v>0.728857235687794</v>
       </c>
       <c r="AJ3">
-        <v>0.8813262695148045</v>
+        <v>0.4708279745001608</v>
+      </c>
+      <c r="AK3">
+        <v>0.8312263671076775</v>
       </c>
       <c r="AL3">
-        <v>0.2354571907446353</v>
+        <v>1.928709128941981</v>
+      </c>
+      <c r="AM3">
+        <v>0.3293485558655543</v>
       </c>
       <c r="AN3">
-        <v>0.8997723879820491</v>
+        <v>0.6274314793991946</v>
       </c>
       <c r="AO3">
-        <v>0.6106263975837413</v>
+        <v>0.9143435917536344</v>
       </c>
       <c r="AP3">
-        <v>1.571179202423509</v>
+        <v>0.679643899329836</v>
       </c>
       <c r="AQ3">
-        <v>2.532809433324398</v>
+        <v>0.46292935070419</v>
       </c>
       <c r="AR3">
-        <v>0.8987227012071382</v>
+        <v>0.1884135883562323</v>
       </c>
       <c r="AT3">
-        <v>0.6159139748104738</v>
+        <v>1.121037316460375</v>
+      </c>
+      <c r="AU3">
+        <v>0.6568678338048127</v>
       </c>
       <c r="AV3">
-        <v>1.478874725385676</v>
+        <v>0.356296744112476</v>
       </c>
       <c r="AW3">
-        <v>1.345842872970612</v>
+        <v>1.246314941843644</v>
       </c>
       <c r="AX3">
-        <v>0.5014244064101012</v>
+        <v>0.1919340835271525</v>
       </c>
       <c r="AY3">
-        <v>0.6427016629782298</v>
-      </c>
-      <c r="AZ3">
-        <v>1.033331112667266</v>
+        <v>2.215317853138929</v>
       </c>
       <c r="BA3">
-        <v>1.185976781700372</v>
+        <v>0.9953807887544701</v>
       </c>
       <c r="BB3">
-        <v>0.9076240860562631</v>
+        <v>1.283270455431499</v>
       </c>
       <c r="BC3">
-        <v>0.7754141694241694</v>
+        <v>1.104110873672336</v>
       </c>
       <c r="BD3">
-        <v>0.9502255055813343</v>
+        <v>0.3364327836480991</v>
       </c>
       <c r="BE3">
-        <v>0.5836514378297664</v>
+        <v>0.6804684284812854</v>
       </c>
       <c r="BF3">
-        <v>0.7470570503136228</v>
-      </c>
-      <c r="BG3">
-        <v>0.8219052116683893</v>
+        <v>0.3206497025727096</v>
       </c>
       <c r="BH3">
-        <v>0.4008595730484756</v>
+        <v>1.074168543117722</v>
       </c>
       <c r="BI3">
-        <v>0.3776317426994307</v>
+        <v>0.9729149180363217</v>
       </c>
       <c r="BJ3">
-        <v>0.6448653349501182</v>
+        <v>0.4452678510977467</v>
+      </c>
+      <c r="BK3">
+        <v>0.7377908123555569</v>
       </c>
       <c r="BL3">
-        <v>1.126374456715073</v>
-      </c>
-      <c r="BM3">
-        <v>0.3689222236583851</v>
+        <v>0.3311564422319784</v>
+      </c>
+      <c r="BN3">
+        <v>0.9162476227727038</v>
+      </c>
+      <c r="BO3">
+        <v>0.734887109661767</v>
+      </c>
+      <c r="BP3">
+        <v>0.5987126485477183</v>
       </c>
       <c r="BQ3">
-        <v>0.7872311302647665</v>
+        <v>0.4493020054777126</v>
       </c>
       <c r="BR3">
-        <v>0.4862114733728589</v>
+        <v>1.131991080245805</v>
       </c>
       <c r="BS3">
-        <v>0.7438608105757434</v>
+        <v>0.4048704707898003</v>
       </c>
       <c r="BT3">
-        <v>0.1974727751465883</v>
+        <v>1.221966133654212</v>
       </c>
       <c r="BU3">
-        <v>0.4616076615484266</v>
+        <v>0.4354772504012366</v>
       </c>
       <c r="BV3">
-        <v>0.201508922218652</v>
+        <v>0.7727878269645273</v>
       </c>
       <c r="BW3">
-        <v>0.4510627762781779</v>
+        <v>0.9906467879109859</v>
       </c>
       <c r="BX3">
-        <v>0.596638596210862</v>
-      </c>
-      <c r="CA3">
-        <v>0.5464889167447252</v>
+        <v>0.2692658925887303</v>
+      </c>
+      <c r="BY3">
+        <v>0.526697137383943</v>
+      </c>
+      <c r="BZ3">
+        <v>0.6621077208774221</v>
       </c>
       <c r="CB3">
-        <v>0.6864581177482879</v>
+        <v>0.4509614587649218</v>
+      </c>
+      <c r="CC3">
+        <v>0.2632585538388286</v>
       </c>
       <c r="CD3">
-        <v>0.7852570379498801</v>
+        <v>0.3129475317812789</v>
       </c>
       <c r="CE3">
-        <v>0.4472152719699806</v>
+        <v>0.6384058158547883</v>
       </c>
       <c r="CF3">
-        <v>0.524807340489363</v>
+        <v>0.3257373579348528</v>
+      </c>
+      <c r="CG3">
+        <v>0.4820842588801468</v>
       </c>
       <c r="CH3">
-        <v>0.3229181878187335</v>
+        <v>0.688843634626611</v>
+      </c>
+      <c r="CI3">
+        <v>0.3870884335162518</v>
       </c>
       <c r="CK3">
-        <v>0.4640980005497903</v>
+        <v>0.9494954159757304</v>
+      </c>
+      <c r="CL3">
+        <v>0.9004303241022159</v>
       </c>
       <c r="CM3">
-        <v>1.039334373104352</v>
+        <v>0.9462514161067491</v>
       </c>
       <c r="CN3">
-        <v>0.8041949643101415</v>
+        <v>0.441906055934816</v>
+      </c>
+      <c r="CO3">
+        <v>0.6730892391673424</v>
       </c>
       <c r="CP3">
-        <v>0.9761009122670987</v>
+        <v>0.6615168011650493</v>
+      </c>
+      <c r="CQ3">
+        <v>0.5862063286562194</v>
+      </c>
+      <c r="CR3">
+        <v>0.5947651585978464</v>
       </c>
       <c r="CS3">
-        <v>0.7340335914176415</v>
+        <v>0.3512081105969299</v>
+      </c>
+      <c r="CT3">
+        <v>0.3536685865474122</v>
+      </c>
+      <c r="CU3">
+        <v>0.3878982478671594</v>
+      </c>
+      <c r="CV3">
+        <v>0.8051534612879491</v>
+      </c>
+      <c r="CW3">
+        <v>0.4992155185417762</v>
       </c>
       <c r="CX3">
-        <v>0.6570165668729846</v>
+        <v>0.6513718142748511</v>
+      </c>
+      <c r="CY3">
+        <v>0.2576051538448274</v>
+      </c>
+      <c r="CZ3">
+        <v>0.2069287516997816</v>
       </c>
       <c r="DA3">
-        <v>0.6105092059722943</v>
+        <v>0.7765394675230568</v>
       </c>
       <c r="DB3">
-        <v>0.403055660990024</v>
+        <v>0.6052301883866378</v>
+      </c>
+      <c r="DC3">
+        <v>0.4694127887043038</v>
       </c>
       <c r="DD3">
-        <v>0.681506281618269</v>
+        <v>0.3890628892098474</v>
       </c>
       <c r="DE3">
-        <v>0.5019648406888422</v>
+        <v>0.3342233576797291</v>
+      </c>
+      <c r="DF3">
+        <v>0.6505561518710192</v>
       </c>
       <c r="DG3">
-        <v>0.7754738753709473</v>
+        <v>0.4964563024092146</v>
+      </c>
+      <c r="DH3">
+        <v>0.3506895255105847</v>
       </c>
       <c r="DI3">
-        <v>0.6868497509344674</v>
+        <v>0.6685836418836405</v>
       </c>
       <c r="DJ3">
-        <v>0.6871217369417413</v>
+        <v>0.6968531344397572</v>
       </c>
       <c r="DK3">
-        <v>0.6580880506958221</v>
+        <v>0.9335914916060284</v>
       </c>
       <c r="DL3">
-        <v>0.5666284153431795</v>
+        <v>0.663768775591336</v>
+      </c>
+      <c r="DM3">
+        <v>0.6358663898644847</v>
+      </c>
+      <c r="DN3">
+        <v>0.5033743501264989</v>
       </c>
       <c r="DO3">
-        <v>0.487786263604164</v>
+        <v>0.5119940879486413</v>
+      </c>
+      <c r="DP3">
+        <v>0.3890976019304189</v>
+      </c>
+      <c r="DQ3">
+        <v>1.887898067579143</v>
+      </c>
+      <c r="DR3">
+        <v>0.4486947263494352</v>
       </c>
       <c r="DS3">
-        <v>0.4761325973308028</v>
+        <v>0.4272420012545248</v>
+      </c>
+      <c r="DT3">
+        <v>0.8185753935850223</v>
       </c>
       <c r="DU3">
-        <v>0.7570285147914781</v>
+        <v>0.7565925523687156</v>
       </c>
       <c r="DV3">
-        <v>0.9766902184201522</v>
+        <v>1.011921686571276</v>
       </c>
       <c r="DW3">
-        <v>0.5603940818646521</v>
+        <v>0.5989651633481814</v>
       </c>
       <c r="DX3">
-        <v>0.8900316918120227</v>
+        <v>0.434501068162822</v>
+      </c>
+      <c r="DY3">
+        <v>0.5445983323898719</v>
+      </c>
+      <c r="DZ3">
+        <v>0.8524095274645114</v>
+      </c>
+      <c r="EB3">
+        <v>0.9457531749313197</v>
+      </c>
+      <c r="EC3">
+        <v>0.6653297669696389</v>
+      </c>
+      <c r="ED3">
+        <v>0.2567207337935759</v>
+      </c>
+      <c r="EE3">
+        <v>0.6625656860199249</v>
+      </c>
+      <c r="EF3">
+        <v>0.5469956366565573</v>
+      </c>
+      <c r="EH3">
+        <v>0.4870661958280421</v>
+      </c>
+      <c r="EI3">
+        <v>0.8067501119671124</v>
+      </c>
+      <c r="EJ3">
+        <v>0.5401745276376986</v>
+      </c>
+      <c r="EK3">
+        <v>0.5264320029086993</v>
+      </c>
+      <c r="EL3">
+        <v>0.9514814379899882</v>
       </c>
       <c r="EM3">
-        <v>0.8496199834665782</v>
+        <v>0.7135239963538188</v>
       </c>
       <c r="EN3">
-        <v>0.8292165746761445</v>
+        <v>0.3453741700302336</v>
       </c>
       <c r="EO3">
-        <v>0.7742467801066875</v>
+        <v>1.023147279363559</v>
       </c>
       <c r="EP3">
-        <v>0.8376402500679091</v>
+        <v>0.6675812380349879</v>
       </c>
       <c r="EQ3">
-        <v>0.9431616070471225</v>
+        <v>0.3322847301242174</v>
+      </c>
+      <c r="ER3">
+        <v>0.7738789238998853</v>
       </c>
       <c r="ET3">
-        <v>0.6666102955741469</v>
+        <v>0.4609469790975612</v>
+      </c>
+      <c r="EU3">
+        <v>0.4303999371401865</v>
+      </c>
+      <c r="EV3">
+        <v>0.9673795178481778</v>
+      </c>
+      <c r="EW3">
+        <v>0.551504031797613</v>
       </c>
       <c r="EX3">
-        <v>0.9143107583948593</v>
+        <v>0.7918655396222167</v>
       </c>
       <c r="EY3">
-        <v>0.8674648806409679</v>
+        <v>0.323177909610169</v>
+      </c>
+      <c r="EZ3">
+        <v>0.6041856968982998</v>
+      </c>
+      <c r="FA3">
+        <v>0.3192765293589869</v>
       </c>
       <c r="FB3">
-        <v>0.5345461600319291</v>
+        <v>0.5866524686804209</v>
+      </c>
+      <c r="FC3">
+        <v>0.7722450988337725</v>
+      </c>
+      <c r="FD3">
+        <v>0.6032194630489996</v>
       </c>
       <c r="FE3">
-        <v>0.8725390901984543</v>
+        <v>0.635522152761827</v>
       </c>
       <c r="FF3">
-        <v>0.5373500416629913</v>
+        <v>0.4432550033636061</v>
       </c>
       <c r="FG3">
-        <v>0.8013644310143635</v>
+        <v>0.3175497964116423</v>
+      </c>
+      <c r="FI3">
+        <v>0.5971801494506384</v>
+      </c>
+      <c r="FJ3">
+        <v>0.3233804117804353</v>
       </c>
       <c r="FK3">
-        <v>0.5949763872542602</v>
+        <v>0.8725920418014727</v>
       </c>
       <c r="FL3">
-        <v>0.6860137170909647</v>
+        <v>1.183490610731611</v>
       </c>
       <c r="FM3">
-        <v>0.684337273448224</v>
+        <v>0.9119161468650795</v>
       </c>
       <c r="FN3">
-        <v>0.5821703567096717</v>
+        <v>0.604366832710358</v>
       </c>
       <c r="FO3">
-        <v>0.659678536301279</v>
+        <v>0.8090337138298306</v>
+      </c>
+      <c r="FP3">
+        <v>0.8237823448588221</v>
       </c>
       <c r="FQ3">
-        <v>0.9186012606086197</v>
+        <v>0.6655248038118221</v>
       </c>
       <c r="FR3">
-        <v>0.6804376156620513</v>
+        <v>0.2728314649230143</v>
+      </c>
+      <c r="FS3">
+        <v>1.039376864017143</v>
+      </c>
+      <c r="FT3">
+        <v>0.6074527108651379</v>
+      </c>
+      <c r="FU3">
+        <v>1.042524158706126</v>
+      </c>
+      <c r="FV3">
+        <v>0.4078373732065396</v>
+      </c>
+      <c r="FW3">
+        <v>0.5118107804555246</v>
+      </c>
+      <c r="FX3">
+        <v>1.122823562815438</v>
+      </c>
+      <c r="FY3">
+        <v>0.6959987475012108</v>
+      </c>
+      <c r="FZ3">
+        <v>0.8609652210951398</v>
+      </c>
+      <c r="GA3">
+        <v>0.2950962045045967</v>
+      </c>
+      <c r="GB3">
+        <v>1.535699845513963</v>
       </c>
       <c r="GC3">
-        <v>1.383987115034164</v>
+        <v>2.607740086264162</v>
+      </c>
+      <c r="GD3">
+        <v>0.7797210519604763</v>
+      </c>
+      <c r="GE3">
+        <v>0.7951422342219795</v>
       </c>
       <c r="GG3">
-        <v>0.9272078803406109</v>
+        <v>0.8486845563894372</v>
+      </c>
+      <c r="GH3">
+        <v>0.3544222552378328</v>
+      </c>
+      <c r="GI3">
+        <v>2.045130566808087</v>
       </c>
       <c r="GJ3">
-        <v>1.156208385187937</v>
+        <v>1.185113191464877</v>
+      </c>
+      <c r="GK3">
+        <v>0.8567549642257843</v>
+      </c>
+      <c r="GL3">
+        <v>1.161429294417629</v>
+      </c>
+      <c r="GM3">
+        <v>1.573119529900913</v>
+      </c>
+      <c r="GN3">
+        <v>0.4940607135598251</v>
+      </c>
+      <c r="GO3">
+        <v>2.256209262393147</v>
+      </c>
+      <c r="GP3">
+        <v>0.2358839411929883</v>
+      </c>
+      <c r="GQ3">
+        <v>0.2741985396832182</v>
+      </c>
+      <c r="GR3">
+        <v>0.5541726178657153</v>
       </c>
     </row>
     <row r="4" spans="1:201">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.2975811578932456</v>
+      </c>
       <c r="C4">
-        <v>0.4647005336565305</v>
+        <v>0.909531965918738</v>
       </c>
       <c r="D4">
-        <v>0.4848058616469115</v>
+        <v>1.11773194333078</v>
       </c>
       <c r="E4">
-        <v>0.4303115276577036</v>
-      </c>
-      <c r="F4">
-        <v>0.6699952408988353</v>
+        <v>0.4528611704650798</v>
       </c>
       <c r="H4">
-        <v>0.3066936185989098</v>
+        <v>2.705768393156221</v>
       </c>
       <c r="I4">
-        <v>1.373867017019337</v>
+        <v>0.2768537474719861</v>
+      </c>
+      <c r="J4">
+        <v>0.3783686131116851</v>
+      </c>
+      <c r="K4">
+        <v>0.6056183091726197</v>
       </c>
       <c r="L4">
-        <v>0.8072951660380038</v>
+        <v>0.6475608033912319</v>
+      </c>
+      <c r="M4">
+        <v>0.4234176171483895</v>
       </c>
       <c r="N4">
-        <v>0.6041226832266366</v>
+        <v>0.2586481836642703</v>
+      </c>
+      <c r="O4">
+        <v>1.378020459953906</v>
+      </c>
+      <c r="P4">
+        <v>0.6828566835595304</v>
       </c>
       <c r="Q4">
-        <v>0.6847686219939063</v>
-      </c>
-      <c r="R4">
-        <v>0.6789168945717764</v>
-      </c>
-      <c r="S4">
-        <v>0.778769408177382</v>
+        <v>0.5785625471412988</v>
       </c>
       <c r="T4">
-        <v>0.6633867285680229</v>
+        <v>0.8047849651378887</v>
+      </c>
+      <c r="U4">
+        <v>0.7413106015374497</v>
       </c>
       <c r="V4">
-        <v>1.129484231458578</v>
+        <v>0.3637793484505541</v>
       </c>
       <c r="W4">
-        <v>0.3557983823578307</v>
-      </c>
-      <c r="X4">
-        <v>2.40668306849926</v>
-      </c>
-      <c r="Y4">
-        <v>0.6798529813399183</v>
+        <v>0.6377410781917456</v>
+      </c>
+      <c r="Z4">
+        <v>0.8121638735469543</v>
+      </c>
+      <c r="AA4">
+        <v>0.8323586627568349</v>
       </c>
       <c r="AC4">
-        <v>0.5162852333099934</v>
-      </c>
-      <c r="AE4">
-        <v>1.637029762998452</v>
+        <v>1.546888502182493</v>
+      </c>
+      <c r="AD4">
+        <v>0.7481250515331177</v>
       </c>
       <c r="AF4">
-        <v>1.06623234822734</v>
-      </c>
-      <c r="AH4">
-        <v>0.4476514299470536</v>
+        <v>1.950498639697855</v>
+      </c>
+      <c r="AG4">
+        <v>0.9333243007735433</v>
       </c>
       <c r="AI4">
-        <v>0.9341401525785107</v>
+        <v>0.7522888430291363</v>
       </c>
       <c r="AJ4">
-        <v>1.09498145407763</v>
+        <v>0.4476923752956243</v>
+      </c>
+      <c r="AK4">
+        <v>1.014734816424478</v>
       </c>
       <c r="AL4">
-        <v>0.2776699557562551</v>
+        <v>2.311414359839544</v>
+      </c>
+      <c r="AM4">
+        <v>0.2798463579031557</v>
+      </c>
+      <c r="AN4">
+        <v>0.9799087947038935</v>
       </c>
       <c r="AO4">
-        <v>0.9000485356497441</v>
+        <v>0.8026161769439771</v>
       </c>
       <c r="AP4">
-        <v>1.646299511819799</v>
+        <v>0.7863191058241361</v>
       </c>
       <c r="AQ4">
-        <v>2.844793375805581</v>
+        <v>0.8248394066429685</v>
       </c>
       <c r="AR4">
-        <v>1.044211327103768</v>
-      </c>
-      <c r="AS4">
-        <v>0.4221730873193162</v>
+        <v>0.1907640665410656</v>
       </c>
       <c r="AT4">
-        <v>0.5683760887141193</v>
+        <v>1.343078857465943</v>
+      </c>
+      <c r="AU4">
+        <v>0.6193385307240116</v>
       </c>
       <c r="AV4">
-        <v>1.675964042036443</v>
+        <v>0.3593121861511323</v>
       </c>
       <c r="AW4">
-        <v>1.279457199170888</v>
+        <v>1.208890752306603</v>
       </c>
       <c r="AX4">
-        <v>0.7219679812311165</v>
+        <v>0.2795705580058531</v>
+      </c>
+      <c r="AY4">
+        <v>1.736215971849055</v>
       </c>
       <c r="AZ4">
-        <v>1.082101848353273</v>
+        <v>0.3946728141695207</v>
       </c>
       <c r="BA4">
-        <v>1.186451071610505</v>
+        <v>1.02500882906967</v>
       </c>
       <c r="BB4">
-        <v>0.7688657469581165</v>
+        <v>1.480786100838107</v>
       </c>
       <c r="BC4">
-        <v>0.7521679348889787</v>
+        <v>1.08984198464413</v>
       </c>
       <c r="BD4">
-        <v>1.427727261386871</v>
+        <v>0.2385269819434898</v>
       </c>
       <c r="BE4">
-        <v>0.7216632506454107</v>
+        <v>0.8963460142125604</v>
       </c>
       <c r="BF4">
-        <v>0.5681052017989782</v>
-      </c>
-      <c r="BG4">
-        <v>0.6430035282521737</v>
+        <v>0.4385421024575916</v>
       </c>
       <c r="BH4">
-        <v>0.3308705386829309</v>
+        <v>1.653080802036331</v>
       </c>
       <c r="BI4">
-        <v>0.4518290329406922</v>
+        <v>1.366468167307213</v>
       </c>
       <c r="BJ4">
-        <v>0.6703557837718809</v>
+        <v>0.4023136211025495</v>
+      </c>
+      <c r="BK4">
+        <v>0.587105463459318</v>
       </c>
       <c r="BL4">
-        <v>1.041598705794772</v>
+        <v>0.2819478783253894</v>
       </c>
       <c r="BM4">
-        <v>0.342415373743989</v>
+        <v>0.6142296978665345</v>
       </c>
       <c r="BN4">
-        <v>0.8268365139747684</v>
+        <v>1.012794025783814</v>
       </c>
       <c r="BO4">
-        <v>0.6097154360265022</v>
+        <v>0.6984427518442734</v>
+      </c>
+      <c r="BP4">
+        <v>0.9553433475428554</v>
+      </c>
+      <c r="BQ4">
+        <v>0.4460276811124804</v>
       </c>
       <c r="BR4">
-        <v>0.4472410181228568</v>
+        <v>1.087907527187492</v>
       </c>
       <c r="BS4">
-        <v>0.7176939508828167</v>
+        <v>0.2724545678008779</v>
+      </c>
+      <c r="BT4">
+        <v>1.213547516277975</v>
       </c>
       <c r="BU4">
-        <v>0.3549004307032705</v>
+        <v>0.3351508421142512</v>
+      </c>
+      <c r="BV4">
+        <v>0.8856433734259874</v>
+      </c>
+      <c r="BW4">
+        <v>0.9551811397383914</v>
       </c>
       <c r="BX4">
-        <v>0.4753245354983675</v>
+        <v>0.220790455685112</v>
       </c>
       <c r="BY4">
-        <v>1.50529241086352</v>
-      </c>
-      <c r="CA4">
-        <v>0.5195496167374229</v>
+        <v>0.6229385587502587</v>
+      </c>
+      <c r="BZ4">
+        <v>0.6217169153841794</v>
+      </c>
+      <c r="CB4">
+        <v>0.4564574233104238</v>
+      </c>
+      <c r="CC4">
+        <v>0.2039679919996833</v>
+      </c>
+      <c r="CD4">
+        <v>0.261041437559144</v>
       </c>
       <c r="CE4">
-        <v>0.5289556856489566</v>
+        <v>0.6550634599343776</v>
       </c>
       <c r="CF4">
-        <v>0.5085168420197784</v>
+        <v>0.2956727864556059</v>
+      </c>
+      <c r="CG4">
+        <v>0.5406211241154754</v>
       </c>
       <c r="CH4">
-        <v>0.3350004342121367</v>
+        <v>0.7205980849421697</v>
       </c>
       <c r="CI4">
-        <v>0.5570481216544599</v>
+        <v>0.3433316090940879</v>
       </c>
       <c r="CK4">
-        <v>0.4685943897773613</v>
+        <v>0.8790607533483397</v>
       </c>
       <c r="CL4">
-        <v>0.5611234345018014</v>
+        <v>0.9676791770360786</v>
       </c>
       <c r="CM4">
-        <v>0.9715659285338392</v>
+        <v>1.117393536474291</v>
       </c>
       <c r="CN4">
-        <v>0.7704240781283621</v>
+        <v>0.4773613524871289</v>
+      </c>
+      <c r="CO4">
+        <v>0.7330224033263193</v>
       </c>
       <c r="CP4">
-        <v>1.185785234133189</v>
+        <v>0.8305638482499057</v>
+      </c>
+      <c r="CQ4">
+        <v>0.6527657573483039</v>
+      </c>
+      <c r="CR4">
+        <v>0.7146796162063591</v>
       </c>
       <c r="CS4">
-        <v>0.7798883965260622</v>
+        <v>0.3804396795790814</v>
+      </c>
+      <c r="CT4">
+        <v>0.2617859593016605</v>
       </c>
       <c r="CU4">
-        <v>1.435506739722372</v>
+        <v>0.4656227419024254</v>
+      </c>
+      <c r="CV4">
+        <v>0.8087833457227651</v>
+      </c>
+      <c r="CW4">
+        <v>0.796767249189642</v>
       </c>
       <c r="CX4">
-        <v>0.6545941988081609</v>
+        <v>0.6374789402460943</v>
+      </c>
+      <c r="CY4">
+        <v>0.3616001271221586</v>
+      </c>
+      <c r="CZ4">
+        <v>0.2330223007022615</v>
       </c>
       <c r="DA4">
-        <v>0.6243531406632762</v>
+        <v>0.6159221759350405</v>
       </c>
       <c r="DB4">
-        <v>0.3868645516833116</v>
+        <v>0.5801476091218852</v>
       </c>
       <c r="DD4">
-        <v>0.7618427797739301</v>
+        <v>0.3679625440804049</v>
       </c>
       <c r="DE4">
-        <v>0.6451944290792315</v>
+        <v>0.5980034208372059</v>
+      </c>
+      <c r="DF4">
+        <v>0.7195163231796671</v>
       </c>
       <c r="DG4">
-        <v>0.8742182667288755</v>
+        <v>0.6329458146707994</v>
+      </c>
+      <c r="DH4">
+        <v>0.4637192104614057</v>
       </c>
       <c r="DI4">
-        <v>0.712558996732757</v>
+        <v>0.6959050349376453</v>
       </c>
       <c r="DJ4">
-        <v>0.7554583072230449</v>
+        <v>0.7773862020279637</v>
       </c>
       <c r="DK4">
-        <v>0.7500394461642051</v>
+        <v>0.785794145082636</v>
       </c>
       <c r="DL4">
-        <v>0.8569655752796121</v>
+        <v>0.7016574881431883</v>
+      </c>
+      <c r="DM4">
+        <v>0.6849697875124282</v>
+      </c>
+      <c r="DN4">
+        <v>0.7921588497678875</v>
       </c>
       <c r="DO4">
-        <v>0.5563726575895382</v>
+        <v>0.515218060992419</v>
+      </c>
+      <c r="DP4">
+        <v>0.4114909881633425</v>
+      </c>
+      <c r="DQ4">
+        <v>1.101766399131707</v>
+      </c>
+      <c r="DR4">
+        <v>0.4602531475310318</v>
       </c>
       <c r="DS4">
-        <v>0.5636817735774485</v>
+        <v>0.4751544159142267</v>
+      </c>
+      <c r="DT4">
+        <v>0.5746679303116706</v>
       </c>
       <c r="DU4">
-        <v>0.8322533204146925</v>
+        <v>0.813342228041981</v>
       </c>
       <c r="DV4">
-        <v>1.160399512801376</v>
+        <v>1.100136388045735</v>
+      </c>
+      <c r="DW4">
+        <v>0.6607761810796281</v>
       </c>
       <c r="DX4">
-        <v>0.530326962021467</v>
+        <v>0.4349763602908755</v>
+      </c>
+      <c r="DY4">
+        <v>0.5964626534098534</v>
+      </c>
+      <c r="DZ4">
+        <v>0.7309458296037542</v>
+      </c>
+      <c r="EB4">
+        <v>0.6317462119638197</v>
+      </c>
+      <c r="EC4">
+        <v>0.8171418131735688</v>
       </c>
       <c r="ED4">
-        <v>0.6009984451066062</v>
+        <v>0.2393085621279863</v>
+      </c>
+      <c r="EE4">
+        <v>0.4523768609910088</v>
       </c>
       <c r="EF4">
-        <v>0.6462241938228962</v>
-      </c>
-      <c r="EG4">
-        <v>0.3578979757095496</v>
+        <v>0.3245116502205714</v>
+      </c>
+      <c r="EH4">
+        <v>0.5619245388336073</v>
       </c>
       <c r="EI4">
-        <v>0.6567116170428766</v>
+        <v>0.916790687311991</v>
+      </c>
+      <c r="EJ4">
+        <v>0.5910884366328822</v>
+      </c>
+      <c r="EK4">
+        <v>0.6147968432072479</v>
+      </c>
+      <c r="EL4">
+        <v>0.9323900765017552</v>
       </c>
       <c r="EM4">
-        <v>0.6661208103284879</v>
+        <v>0.4606295829238979</v>
       </c>
       <c r="EN4">
-        <v>0.5598046395705697</v>
-      </c>
-      <c r="EO4">
-        <v>0.5394893123310547</v>
+        <v>0.2956050650316701</v>
       </c>
       <c r="EP4">
-        <v>0.7397976008411731</v>
+        <v>0.3466478660989129</v>
       </c>
       <c r="EQ4">
-        <v>0.6624797971881651</v>
-      </c>
-      <c r="ET4">
-        <v>0.4915207434162792</v>
+        <v>0.4932108592975859</v>
+      </c>
+      <c r="ER4">
+        <v>0.6170507304969102</v>
+      </c>
+      <c r="EV4">
+        <v>1.006247643795455</v>
+      </c>
+      <c r="EW4">
+        <v>0.590787339504795</v>
       </c>
       <c r="EX4">
-        <v>1.049630425510231</v>
+        <v>0.8460808140785805</v>
       </c>
       <c r="EY4">
-        <v>0.8178064710595115</v>
+        <v>0.331963712087704</v>
+      </c>
+      <c r="EZ4">
+        <v>0.4796928056381309</v>
+      </c>
+      <c r="FA4">
+        <v>0.4274393979875992</v>
+      </c>
+      <c r="FB4">
+        <v>0.7407418252935369</v>
+      </c>
+      <c r="FC4">
+        <v>0.7950175711406363</v>
+      </c>
+      <c r="FD4">
+        <v>0.487736859285773</v>
       </c>
       <c r="FE4">
-        <v>0.9742334638946855</v>
+        <v>0.8348187165130521</v>
       </c>
       <c r="FF4">
-        <v>0.5330259919517246</v>
+        <v>0.3939519698008421</v>
       </c>
       <c r="FG4">
-        <v>0.9120207682559365</v>
+        <v>0.2551058209187981</v>
+      </c>
+      <c r="FH4">
+        <v>0.3879325705123204</v>
+      </c>
+      <c r="FI4">
+        <v>0.5315348316580065</v>
+      </c>
+      <c r="FJ4">
+        <v>0.2604858296631603</v>
+      </c>
+      <c r="FK4">
+        <v>0.8862525602907003</v>
       </c>
       <c r="FL4">
-        <v>0.8024214894705479</v>
-      </c>
-      <c r="FO4">
-        <v>0.7145996130867273</v>
+        <v>1.437508456872323</v>
+      </c>
+      <c r="FM4">
+        <v>0.9813682957253993</v>
+      </c>
+      <c r="FN4">
+        <v>0.6863359361814722</v>
+      </c>
+      <c r="FP4">
+        <v>0.9468051781024874</v>
       </c>
       <c r="FQ4">
-        <v>1.028532984445698</v>
+        <v>0.7947052401443706</v>
       </c>
       <c r="FR4">
-        <v>0.723387486670565</v>
+        <v>0.3203898688961175</v>
+      </c>
+      <c r="FS4">
+        <v>1.060164057404738</v>
+      </c>
+      <c r="FT4">
+        <v>0.6496411432339243</v>
+      </c>
+      <c r="FU4">
+        <v>1.011471755011043</v>
+      </c>
+      <c r="FV4">
+        <v>0.3471087755888145</v>
+      </c>
+      <c r="FW4">
+        <v>0.5920660493310458</v>
+      </c>
+      <c r="FX4">
+        <v>1.803610941114483</v>
+      </c>
+      <c r="FY4">
+        <v>0.7882298187847053</v>
+      </c>
+      <c r="FZ4">
+        <v>1.105729213712213</v>
+      </c>
+      <c r="GA4">
+        <v>0.3020053560742289</v>
       </c>
       <c r="GB4">
-        <v>1.088972739749356</v>
+        <v>1.719197719575556</v>
+      </c>
+      <c r="GC4">
+        <v>2.178382585777865</v>
       </c>
       <c r="GD4">
-        <v>0.6828274715222441</v>
+        <v>0.7151708473224025</v>
+      </c>
+      <c r="GE4">
+        <v>0.8997584724075086</v>
       </c>
       <c r="GG4">
-        <v>1.051461695941891</v>
+        <v>0.8269986670102362</v>
+      </c>
+      <c r="GH4">
+        <v>0.8771993344659403</v>
+      </c>
+      <c r="GI4">
+        <v>1.63833467449122</v>
       </c>
       <c r="GJ4">
-        <v>1.290501149192303</v>
+        <v>1.372865892561049</v>
+      </c>
+      <c r="GK4">
+        <v>0.6404119912178907</v>
+      </c>
+      <c r="GL4">
+        <v>1.072895606128099</v>
+      </c>
+      <c r="GM4">
+        <v>1.792530884649433</v>
+      </c>
+      <c r="GN4">
+        <v>0.2297835108719186</v>
+      </c>
+      <c r="GO4">
+        <v>2.359126407236151</v>
+      </c>
+      <c r="GP4">
+        <v>0.6152819697101488</v>
+      </c>
+      <c r="GQ4">
+        <v>0.6144253122543266</v>
+      </c>
+      <c r="GR4">
+        <v>0.4045916410326865</v>
+      </c>
+      <c r="GS4">
+        <v>1.129087301703655</v>
       </c>
     </row>
     <row r="5" spans="1:201">
@@ -2212,304 +2665,538 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3303284034210079</v>
+        <v>0.287142884230446</v>
       </c>
       <c r="C5">
-        <v>0.5684236198095777</v>
+        <v>1.302403442607236</v>
       </c>
       <c r="D5">
-        <v>0.5366325156357694</v>
-      </c>
-      <c r="F5">
-        <v>0.6368808370422608</v>
-      </c>
-      <c r="G5">
-        <v>0.5360471992052959</v>
+        <v>0.9453706583048378</v>
+      </c>
+      <c r="E5">
+        <v>0.2836000330526117</v>
       </c>
       <c r="H5">
-        <v>0.3243218210334782</v>
+        <v>2.972094269877568</v>
       </c>
       <c r="I5">
-        <v>1.711121180894892</v>
+        <v>0.3296327835606041</v>
+      </c>
+      <c r="J5">
+        <v>0.5273948886964605</v>
+      </c>
+      <c r="K5">
+        <v>0.566353729265314</v>
+      </c>
+      <c r="L5">
+        <v>0.7757228027412146</v>
+      </c>
+      <c r="M5">
+        <v>0.3745833815306268</v>
       </c>
       <c r="N5">
-        <v>0.6683646105850104</v>
+        <v>0.2747333231977104</v>
       </c>
       <c r="O5">
-        <v>0.3016116362850054</v>
-      </c>
-      <c r="S5">
-        <v>0.7866818106023232</v>
-      </c>
-      <c r="T5">
-        <v>0.8933262965677095</v>
+        <v>1.774853904791722</v>
+      </c>
+      <c r="P5">
+        <v>0.8685512271194098</v>
+      </c>
+      <c r="Q5">
+        <v>0.6358425491240655</v>
+      </c>
+      <c r="R5">
+        <v>0.2686978522753959</v>
+      </c>
+      <c r="U5">
+        <v>0.9697594287724987</v>
       </c>
       <c r="V5">
-        <v>1.01403989475163</v>
+        <v>0.4507572871742804</v>
       </c>
       <c r="W5">
-        <v>0.3381258032743595</v>
-      </c>
-      <c r="X5">
-        <v>2.624362116625645</v>
-      </c>
-      <c r="Y5">
-        <v>0.6166638090238445</v>
+        <v>0.5778935835222904</v>
       </c>
       <c r="Z5">
-        <v>0.3977374047472473</v>
-      </c>
-      <c r="AB5">
-        <v>0.7426762023592984</v>
+        <v>0.62163826806244</v>
+      </c>
+      <c r="AA5">
+        <v>0.9012180518685297</v>
       </c>
       <c r="AC5">
-        <v>0.5186745588422096</v>
-      </c>
-      <c r="AD5">
-        <v>0.3672470917047038</v>
-      </c>
-      <c r="AE5">
-        <v>1.351105099466807</v>
-      </c>
-      <c r="AH5">
-        <v>0.4125729497229073</v>
+        <v>0.68773394086321</v>
+      </c>
+      <c r="AF5">
+        <v>1.689909753865156</v>
+      </c>
+      <c r="AG5">
+        <v>0.9896936988259372</v>
       </c>
       <c r="AI5">
-        <v>0.9401761805662072</v>
+        <v>0.7158854567734525</v>
       </c>
       <c r="AJ5">
-        <v>0.840362089964637</v>
+        <v>0.4313258620151569</v>
+      </c>
+      <c r="AK5">
+        <v>0.6615693889746715</v>
       </c>
       <c r="AL5">
-        <v>0.3278678464131461</v>
-      </c>
-      <c r="AO5">
-        <v>0.5650444230507525</v>
+        <v>2.291386380109472</v>
+      </c>
+      <c r="AM5">
+        <v>0.3276758024889385</v>
+      </c>
+      <c r="AN5">
+        <v>0.659746031689419</v>
       </c>
       <c r="AP5">
-        <v>1.432343888381063</v>
+        <v>0.7922814340828914</v>
       </c>
       <c r="AQ5">
-        <v>3.030895069154293</v>
+        <v>0.6887676815968709</v>
       </c>
       <c r="AR5">
-        <v>0.8363734676457573</v>
+        <v>0.1754951407205221</v>
       </c>
       <c r="AT5">
-        <v>0.8195530295774011</v>
+        <v>1.035010713961729</v>
+      </c>
+      <c r="AU5">
+        <v>0.7993344064828524</v>
       </c>
       <c r="AV5">
-        <v>1.428205663542834</v>
+        <v>0.3674536623137832</v>
       </c>
       <c r="AW5">
-        <v>1.139580045135073</v>
+        <v>1.097529324889163</v>
       </c>
       <c r="AX5">
-        <v>0.5503908660150375</v>
+        <v>0.2060315011565866</v>
       </c>
       <c r="AY5">
-        <v>0.7367553122809332</v>
+        <v>1.853385108510138</v>
       </c>
       <c r="AZ5">
-        <v>0.8791967219546112</v>
+        <v>0.3208453416578019</v>
       </c>
       <c r="BA5">
-        <v>1.15048739225535</v>
+        <v>1.184816978022921</v>
       </c>
       <c r="BB5">
-        <v>0.8824196593428592</v>
+        <v>1.137498488736542</v>
       </c>
       <c r="BC5">
-        <v>0.7385759970226257</v>
+        <v>0.8000854296441603</v>
       </c>
       <c r="BD5">
-        <v>1.042332822534328</v>
+        <v>0.3303321427169633</v>
       </c>
       <c r="BE5">
-        <v>0.5838934396466635</v>
+        <v>0.7176717020406581</v>
       </c>
       <c r="BF5">
-        <v>0.8257204773089236</v>
+        <v>0.3283572226596136</v>
+      </c>
+      <c r="BG5">
+        <v>0.3217528819930225</v>
       </c>
       <c r="BH5">
-        <v>0.3799721436338775</v>
+        <v>1.065266439335927</v>
       </c>
       <c r="BI5">
-        <v>0.3405385313555347</v>
+        <v>1.079231677596379</v>
       </c>
       <c r="BJ5">
-        <v>0.5620422894838717</v>
+        <v>0.4786163765328512</v>
+      </c>
+      <c r="BK5">
+        <v>0.7439435470446988</v>
       </c>
       <c r="BL5">
-        <v>0.9615402283581208</v>
+        <v>0.3932962173475817</v>
+      </c>
+      <c r="BM5">
+        <v>0.6347779931686909</v>
+      </c>
+      <c r="BN5">
+        <v>0.8565492426111294</v>
+      </c>
+      <c r="BO5">
+        <v>0.781273770481509</v>
       </c>
       <c r="BP5">
-        <v>0.7282946141817893</v>
+        <v>0.8036922502724202</v>
+      </c>
+      <c r="BQ5">
+        <v>0.4902531579429025</v>
       </c>
       <c r="BR5">
-        <v>0.4820874175127158</v>
+        <v>0.9297408583177421</v>
       </c>
       <c r="BS5">
-        <v>0.7370848863270268</v>
+        <v>0.3944238205699935</v>
+      </c>
+      <c r="BT5">
+        <v>1.396594208004775</v>
       </c>
       <c r="BU5">
-        <v>0.4031035414902587</v>
+        <v>0.4757426349762724</v>
       </c>
       <c r="BV5">
-        <v>0.1503394195960397</v>
+        <v>0.537788302486622</v>
+      </c>
+      <c r="BW5">
+        <v>0.7057250552326153</v>
       </c>
       <c r="BX5">
-        <v>0.6035198330593027</v>
+        <v>0.2643828857403525</v>
       </c>
       <c r="BY5">
-        <v>0.8624091517969366</v>
-      </c>
-      <c r="CA5">
-        <v>0.5585787734515802</v>
+        <v>0.4185127152160003</v>
+      </c>
+      <c r="BZ5">
+        <v>0.8516725772045425</v>
+      </c>
+      <c r="CB5">
+        <v>0.4532331941993989</v>
       </c>
       <c r="CC5">
-        <v>0.269661233590302</v>
+        <v>0.2765610165828237</v>
       </c>
       <c r="CD5">
-        <v>1.089954419290206</v>
+        <v>0.3250722819319203</v>
       </c>
       <c r="CE5">
-        <v>0.5518337991587682</v>
+        <v>0.5368561106778379</v>
+      </c>
+      <c r="CF5">
+        <v>0.4229018693342765</v>
+      </c>
+      <c r="CG5">
+        <v>0.4992573880279218</v>
       </c>
       <c r="CH5">
-        <v>0.3199371988760565</v>
+        <v>0.5807397244270601</v>
+      </c>
+      <c r="CI5">
+        <v>0.4007083153927081</v>
       </c>
       <c r="CK5">
-        <v>0.4915374135430375</v>
+        <v>0.6086527265877203</v>
+      </c>
+      <c r="CL5">
+        <v>0.7962163223279569</v>
       </c>
       <c r="CM5">
-        <v>0.8614391315965065</v>
+        <v>0.9330038562978616</v>
       </c>
       <c r="CN5">
-        <v>0.6598051299932903</v>
+        <v>0.3720617835808323</v>
+      </c>
+      <c r="CO5">
+        <v>0.8559933633050821</v>
       </c>
       <c r="CP5">
-        <v>0.8581236444883154</v>
+        <v>0.6050585030479796</v>
+      </c>
+      <c r="CQ5">
+        <v>0.7604828878393255</v>
+      </c>
+      <c r="CR5">
+        <v>0.4826878948242866</v>
       </c>
       <c r="CS5">
-        <v>0.5885188175143465</v>
+        <v>0.2634638647219673</v>
+      </c>
+      <c r="CT5">
+        <v>0.2495000540437546</v>
       </c>
       <c r="CU5">
-        <v>1.440517106384305</v>
+        <v>0.3856926544016375</v>
+      </c>
+      <c r="CV5">
+        <v>0.7897165869536208</v>
       </c>
       <c r="CW5">
-        <v>0.6427114433690578</v>
+        <v>0.4627355468687711</v>
       </c>
       <c r="CX5">
-        <v>0.6837044852402732</v>
+        <v>0.6800281333279693</v>
+      </c>
+      <c r="CY5">
+        <v>0.3948886460103937</v>
       </c>
       <c r="CZ5">
-        <v>0.5245173209734891</v>
+        <v>0.1632400768849711</v>
       </c>
       <c r="DA5">
-        <v>0.6624929761979546</v>
+        <v>0.4938774940015394</v>
       </c>
       <c r="DB5">
-        <v>0.5076103756390684</v>
+        <v>0.6186954759876896</v>
       </c>
       <c r="DD5">
-        <v>0.7771109806692942</v>
+        <v>0.4946793214656641</v>
       </c>
       <c r="DE5">
-        <v>0.5568714597178429</v>
+        <v>0.3691590971058353</v>
+      </c>
+      <c r="DF5">
+        <v>0.7579277788205937</v>
       </c>
       <c r="DG5">
-        <v>0.8932382242217852</v>
+        <v>0.537613624033951</v>
+      </c>
+      <c r="DH5">
+        <v>0.2317140047423848</v>
       </c>
       <c r="DI5">
-        <v>0.3864239080619336</v>
+        <v>0.3555163645505719</v>
       </c>
       <c r="DJ5">
-        <v>0.6944978453796544</v>
+        <v>0.7717867742497719</v>
       </c>
       <c r="DK5">
-        <v>0.5579447394865124</v>
+        <v>0.6583203491552984</v>
       </c>
       <c r="DL5">
-        <v>0.722426107342384</v>
+        <v>0.6529531336072001</v>
+      </c>
+      <c r="DM5">
+        <v>0.5201874402309569</v>
+      </c>
+      <c r="DN5">
+        <v>0.6708716460784139</v>
       </c>
       <c r="DO5">
-        <v>0.522563767665176</v>
+        <v>0.397247385245977</v>
+      </c>
+      <c r="DP5">
+        <v>0.4209679807219107</v>
+      </c>
+      <c r="DQ5">
+        <v>0.9830053422821498</v>
+      </c>
+      <c r="DR5">
+        <v>0.2715237289716951</v>
       </c>
       <c r="DS5">
-        <v>0.5370993156778736</v>
+        <v>0.4674834030952635</v>
+      </c>
+      <c r="DT5">
+        <v>0.5019199326232335</v>
       </c>
       <c r="DU5">
-        <v>0.8412923769037597</v>
+        <v>0.8445593014976526</v>
       </c>
       <c r="DV5">
-        <v>0.9835946295317852</v>
+        <v>0.9328484626342951</v>
+      </c>
+      <c r="DW5">
+        <v>0.6703500584602557</v>
       </c>
       <c r="DX5">
-        <v>0.7476775685399368</v>
+        <v>0.3546866474228945</v>
+      </c>
+      <c r="DY5">
+        <v>0.5028049485293113</v>
+      </c>
+      <c r="DZ5">
+        <v>0.7856872746331439</v>
+      </c>
+      <c r="EB5">
+        <v>0.8413946790737904</v>
+      </c>
+      <c r="EC5">
+        <v>0.5821429939302744</v>
+      </c>
+      <c r="ED5">
+        <v>0.3026116177963388</v>
+      </c>
+      <c r="EE5">
+        <v>0.6025047623159644</v>
+      </c>
+      <c r="EF5">
+        <v>0.5078483472344774</v>
+      </c>
+      <c r="EH5">
+        <v>0.4419033746953373</v>
+      </c>
+      <c r="EI5">
+        <v>0.6544990194052316</v>
+      </c>
+      <c r="EJ5">
+        <v>0.4724531409304976</v>
+      </c>
+      <c r="EK5">
+        <v>0.3917414766020675</v>
+      </c>
+      <c r="EL5">
+        <v>0.9215183969888125</v>
       </c>
       <c r="EM5">
-        <v>0.7941295251453662</v>
+        <v>0.5453813862214866</v>
       </c>
       <c r="EN5">
-        <v>0.7598223930896894</v>
+        <v>0.3193979098375588</v>
       </c>
       <c r="EO5">
-        <v>0.6554322154883403</v>
+        <v>1.051887592379229</v>
       </c>
       <c r="EP5">
-        <v>0.7741217471968629</v>
+        <v>0.5612751713984534</v>
       </c>
       <c r="EQ5">
-        <v>0.8457578030076935</v>
-      </c>
-      <c r="ET5">
-        <v>0.6157954221707347</v>
+        <v>0.2821620791894386</v>
+      </c>
+      <c r="ER5">
+        <v>0.7393389306708906</v>
+      </c>
+      <c r="EU5">
+        <v>0.4138569294929338</v>
+      </c>
+      <c r="EV5">
+        <v>0.9492059068487591</v>
+      </c>
+      <c r="EW5">
+        <v>0.9758571088653042</v>
       </c>
       <c r="EX5">
-        <v>1.009341066751048</v>
+        <v>0.8976026632566163</v>
       </c>
       <c r="EY5">
-        <v>0.6431788908240084</v>
+        <v>0.28629591466785</v>
+      </c>
+      <c r="EZ5">
+        <v>0.4138751383780705</v>
       </c>
       <c r="FA5">
-        <v>0.8951779913575009</v>
+        <v>0.22386386239593</v>
+      </c>
+      <c r="FB5">
+        <v>0.7568902713344464</v>
+      </c>
+      <c r="FC5">
+        <v>0.6547831538538175</v>
+      </c>
+      <c r="FD5">
+        <v>0.3992521242324756</v>
       </c>
       <c r="FE5">
-        <v>0.9740230487002441</v>
+        <v>0.6334146863645449</v>
+      </c>
+      <c r="FF5">
+        <v>0.2954555049504616</v>
       </c>
       <c r="FG5">
-        <v>0.775267006220092</v>
+        <v>0.228379923432939</v>
+      </c>
+      <c r="FI5">
+        <v>0.4647050019493184</v>
+      </c>
+      <c r="FJ5">
+        <v>0.2084472524030663</v>
+      </c>
+      <c r="FK5">
+        <v>1.085875706891264</v>
       </c>
       <c r="FL5">
-        <v>0.6245969033183291</v>
-      </c>
-      <c r="FO5">
-        <v>0.6488010666914799</v>
+        <v>1.24803646733187</v>
+      </c>
+      <c r="FM5">
+        <v>0.8573769311902404</v>
+      </c>
+      <c r="FN5">
+        <v>0.6175830023139042</v>
+      </c>
+      <c r="FP5">
+        <v>0.7239824461947812</v>
       </c>
       <c r="FQ5">
-        <v>0.8879548610372194</v>
+        <v>0.5351326691391058</v>
       </c>
       <c r="FR5">
-        <v>0.8741922090663926</v>
+        <v>0.3332219924259079</v>
+      </c>
+      <c r="FS5">
+        <v>0.8924407623856725</v>
+      </c>
+      <c r="FT5">
+        <v>0.4949562396277812</v>
+      </c>
+      <c r="FU5">
+        <v>1.095882654547887</v>
       </c>
       <c r="FV5">
-        <v>0.5213741755546931</v>
+        <v>0.3547545718047234</v>
+      </c>
+      <c r="FW5">
+        <v>0.5441323098492403</v>
+      </c>
+      <c r="FX5">
+        <v>1.326841599789015</v>
       </c>
       <c r="FY5">
-        <v>0.5749274030756064</v>
+        <v>0.9174129667525548</v>
+      </c>
+      <c r="FZ5">
+        <v>0.8894768177834276</v>
+      </c>
+      <c r="GA5">
+        <v>0.3582677003271162</v>
+      </c>
+      <c r="GB5">
+        <v>2.725276849543459</v>
+      </c>
+      <c r="GC5">
+        <v>2.102556475073418</v>
       </c>
       <c r="GD5">
-        <v>0.7980894420410251</v>
+        <v>0.660118958902873</v>
+      </c>
+      <c r="GE5">
+        <v>0.9643952821187612</v>
       </c>
       <c r="GG5">
-        <v>0.9462507259480394</v>
+        <v>0.9677840437967972</v>
+      </c>
+      <c r="GH5">
+        <v>0.3127418489710825</v>
+      </c>
+      <c r="GI5">
+        <v>2.114159018904405</v>
+      </c>
+      <c r="GJ5">
+        <v>1.709712496893407</v>
+      </c>
+      <c r="GK5">
+        <v>0.8560693738080011</v>
       </c>
       <c r="GL5">
-        <v>0.7659585566807863</v>
+        <v>1.37017564000897</v>
+      </c>
+      <c r="GM5">
+        <v>2.091318433462975</v>
+      </c>
+      <c r="GN5">
+        <v>0.6023425273936188</v>
       </c>
       <c r="GO5">
-        <v>0.6312394128553964</v>
+        <v>2.328708739763988</v>
+      </c>
+      <c r="GP5">
+        <v>0.2767675735565202</v>
+      </c>
+      <c r="GQ5">
+        <v>0.2685367124066159</v>
+      </c>
+      <c r="GR5">
+        <v>0.8223957444712587</v>
+      </c>
+      <c r="GS5">
+        <v>1.391822364860518</v>
       </c>
     </row>
     <row r="6" spans="1:201">
@@ -2517,642 +3204,1128 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3451048122123294</v>
-      </c>
-      <c r="C6">
-        <v>0.6664211390514868</v>
+        <v>0.3378189671684756</v>
       </c>
       <c r="D6">
-        <v>0.7975123217339952</v>
+        <v>1.302577064395475</v>
+      </c>
+      <c r="E6">
+        <v>0.2920052257231092</v>
       </c>
       <c r="F6">
-        <v>0.6896465705185779</v>
-      </c>
-      <c r="G6">
-        <v>1.040271292877928</v>
+        <v>0.6875058174484692</v>
       </c>
       <c r="H6">
-        <v>0.3802303572146771</v>
+        <v>2.574917742331254</v>
       </c>
       <c r="I6">
-        <v>2.019450692691395</v>
+        <v>0.5190629802468978</v>
       </c>
       <c r="J6">
-        <v>0.8138735497061794</v>
+        <v>0.5975894668644428</v>
+      </c>
+      <c r="K6">
+        <v>0.6211173622084211</v>
+      </c>
+      <c r="L6">
+        <v>0.852415441991491</v>
       </c>
       <c r="M6">
-        <v>0.7591586174156035</v>
+        <v>0.3861312613846138</v>
       </c>
       <c r="N6">
-        <v>1.014549106966911</v>
+        <v>0.3504004375069518</v>
+      </c>
+      <c r="O6">
+        <v>2.072723808520819</v>
+      </c>
+      <c r="P6">
+        <v>0.7930111878402822</v>
       </c>
       <c r="Q6">
-        <v>0.8170365875535121</v>
-      </c>
-      <c r="S6">
-        <v>0.6712841825967066</v>
-      </c>
-      <c r="T6">
-        <v>1.076265561988512</v>
+        <v>0.9781928532585308</v>
+      </c>
+      <c r="V6">
+        <v>0.9139088415540565</v>
       </c>
       <c r="W6">
-        <v>0.3904094482020471</v>
-      </c>
-      <c r="X6">
-        <v>2.280720376597877</v>
+        <v>0.8904690480227229</v>
       </c>
       <c r="Y6">
-        <v>0.6938187092405562</v>
+        <v>1.201819627395291</v>
+      </c>
+      <c r="Z6">
+        <v>0.5785604046349632</v>
       </c>
       <c r="AA6">
-        <v>1.815031703669298</v>
-      </c>
-      <c r="AB6">
-        <v>0.921976405869169</v>
+        <v>1.330382234141961</v>
       </c>
       <c r="AC6">
-        <v>0.5141612106627649</v>
+        <v>0.4104226910129933</v>
       </c>
       <c r="AD6">
-        <v>0.4439274766301376</v>
+        <v>1.131370570153772</v>
       </c>
       <c r="AE6">
-        <v>1.638903079498541</v>
+        <v>2.299361370362622</v>
+      </c>
+      <c r="AF6">
+        <v>1.975121690596005</v>
       </c>
       <c r="AG6">
-        <v>0.6499577627761381</v>
+        <v>2.016039873244729</v>
       </c>
       <c r="AH6">
-        <v>0.496478139616814</v>
+        <v>1.956481127480354</v>
+      </c>
+      <c r="AI6">
+        <v>0.8413163638795588</v>
       </c>
       <c r="AJ6">
-        <v>1.186591123486634</v>
+        <v>0.4756307579254165</v>
       </c>
       <c r="AK6">
-        <v>1.018980014916117</v>
+        <v>1.066223318171216</v>
+      </c>
+      <c r="AL6">
+        <v>2.714446542419345</v>
       </c>
       <c r="AM6">
-        <v>1.971323500307602</v>
+        <v>0.4690388087839235</v>
       </c>
       <c r="AN6">
-        <v>1.297313910070498</v>
+        <v>0.9504027276290811</v>
       </c>
       <c r="AO6">
-        <v>0.7798729434168483</v>
+        <v>1.054778335261954</v>
       </c>
       <c r="AP6">
-        <v>1.663532703323881</v>
+        <v>0.7138821698081013</v>
       </c>
       <c r="AQ6">
-        <v>3.362362838931923</v>
+        <v>0.8105031778903303</v>
       </c>
       <c r="AR6">
-        <v>1.08233410857298</v>
+        <v>0.2302258279848798</v>
+      </c>
+      <c r="AS6">
+        <v>2.477613013245664</v>
+      </c>
+      <c r="AT6">
+        <v>1.168409000223054</v>
+      </c>
+      <c r="AU6">
+        <v>0.7528138436921603</v>
       </c>
       <c r="AV6">
-        <v>1.588475955467171</v>
+        <v>0.3982470505422104</v>
       </c>
       <c r="AW6">
-        <v>0.888352689832727</v>
+        <v>2.450209523943091</v>
       </c>
       <c r="AX6">
-        <v>0.6431616113050527</v>
+        <v>0.2583440723605375</v>
+      </c>
+      <c r="AY6">
+        <v>2.68741554745663</v>
+      </c>
+      <c r="AZ6">
+        <v>0.2825163408971268</v>
       </c>
       <c r="BA6">
-        <v>1.184678665139361</v>
+        <v>0.8724880123872726</v>
       </c>
       <c r="BB6">
-        <v>0.8209660309480347</v>
+        <v>1.308116811368909</v>
+      </c>
+      <c r="BC6">
+        <v>0.9663908302075231</v>
       </c>
       <c r="BD6">
-        <v>1.184625894701095</v>
+        <v>0.244800540952045</v>
       </c>
       <c r="BE6">
-        <v>0.6658333769119591</v>
+        <v>0.7950893673683076</v>
       </c>
       <c r="BF6">
-        <v>0.8405113231292718</v>
+        <v>0.4351516044190857</v>
       </c>
       <c r="BG6">
-        <v>0.7596388056654446</v>
+        <v>0.4768006693086029</v>
+      </c>
+      <c r="BH6">
+        <v>0.9233633102703944</v>
       </c>
       <c r="BI6">
-        <v>0.4245043638829459</v>
+        <v>1.10545479608063</v>
       </c>
       <c r="BJ6">
-        <v>0.8132846878816025</v>
+        <v>0.3729421742981345</v>
+      </c>
+      <c r="BK6">
+        <v>0.831134125299428</v>
       </c>
       <c r="BL6">
-        <v>1.141644887227358</v>
+        <v>0.3124442443374064</v>
+      </c>
+      <c r="BM6">
+        <v>0.6877084458089309</v>
+      </c>
+      <c r="BN6">
+        <v>1.201415338595734</v>
       </c>
       <c r="BO6">
-        <v>0.5934289652699321</v>
+        <v>0.7556027440800341</v>
+      </c>
+      <c r="BP6">
+        <v>1.06876851628125</v>
+      </c>
+      <c r="BQ6">
+        <v>0.3933102221847805</v>
       </c>
       <c r="BR6">
-        <v>0.51704101900636</v>
+        <v>0.8476581540790692</v>
       </c>
       <c r="BS6">
-        <v>0.8244163371949151</v>
+        <v>0.4307280304365191</v>
+      </c>
+      <c r="BT6">
+        <v>1.308336657294392</v>
       </c>
       <c r="BU6">
-        <v>0.4223164752920265</v>
+        <v>0.4826960768210335</v>
       </c>
       <c r="BV6">
-        <v>0.1673400075555188</v>
+        <v>0.6761736559751297</v>
+      </c>
+      <c r="BW6">
+        <v>1.041273414977011</v>
       </c>
       <c r="BX6">
-        <v>0.5955167072079055</v>
+        <v>0.2308060662441789</v>
       </c>
       <c r="BY6">
-        <v>1.631338472314722</v>
+        <v>0.6101478565078298</v>
+      </c>
+      <c r="BZ6">
+        <v>0.9503917958822623</v>
       </c>
       <c r="CA6">
-        <v>0.6299435236984332</v>
+        <v>0.605252756344819</v>
+      </c>
+      <c r="CB6">
+        <v>0.6019133798668108</v>
       </c>
       <c r="CC6">
-        <v>0.538699487871296</v>
+        <v>0.4034225980926956</v>
       </c>
       <c r="CD6">
-        <v>0.8465080855442184</v>
+        <v>0.2824525438723187</v>
       </c>
       <c r="CE6">
-        <v>0.6218834554061859</v>
+        <v>0.530826475142215</v>
       </c>
       <c r="CF6">
-        <v>0.5938637897145205</v>
+        <v>0.5325653698255839</v>
+      </c>
+      <c r="CG6">
+        <v>0.7130759183920972</v>
       </c>
       <c r="CH6">
-        <v>0.5485225199412165</v>
+        <v>0.7953415570064533</v>
       </c>
       <c r="CI6">
-        <v>0.9042843450299998</v>
+        <v>0.3549921049784116</v>
       </c>
       <c r="CJ6">
-        <v>0.7713841340093883</v>
+        <v>0.5746110070218657</v>
       </c>
       <c r="CK6">
-        <v>0.672192792521711</v>
+        <v>0.6444056008507323</v>
       </c>
       <c r="CL6">
-        <v>0.502825667913641</v>
+        <v>0.9521615447755075</v>
       </c>
       <c r="CM6">
-        <v>0.7161929330441601</v>
+        <v>1.018217755923925</v>
       </c>
       <c r="CN6">
-        <v>0.8789811721798215</v>
+        <v>0.4934769211557434</v>
+      </c>
+      <c r="CO6">
+        <v>0.7433013238054517</v>
       </c>
       <c r="CP6">
-        <v>0.7550577247654916</v>
+        <v>0.6967585497469482</v>
       </c>
       <c r="CQ6">
-        <v>0.4228107987090624</v>
+        <v>0.6297745927050059</v>
+      </c>
+      <c r="CR6">
+        <v>0.5663385780332689</v>
       </c>
       <c r="CS6">
-        <v>0.6871298049923714</v>
+        <v>0.4334611373493736</v>
       </c>
       <c r="CT6">
-        <v>0.4125467744151147</v>
+        <v>0.3454322112448854</v>
+      </c>
+      <c r="CU6">
+        <v>0.707707284558437</v>
+      </c>
+      <c r="CV6">
+        <v>0.6684139409853743</v>
+      </c>
+      <c r="CW6">
+        <v>0.6518977343784595</v>
       </c>
       <c r="CX6">
-        <v>0.6328156342135457</v>
+        <v>0.6267398986699643</v>
+      </c>
+      <c r="CY6">
+        <v>0.7218017895094324</v>
+      </c>
+      <c r="CZ6">
+        <v>0.2726029634649453</v>
       </c>
       <c r="DA6">
-        <v>0.8326114518999437</v>
+        <v>0.5451918495965291</v>
       </c>
       <c r="DB6">
-        <v>0.8047134434618147</v>
+        <v>0.7673670235016201</v>
       </c>
       <c r="DD6">
-        <v>0.8721117231162551</v>
+        <v>0.7894012684938769</v>
       </c>
       <c r="DE6">
-        <v>0.7655344539492747</v>
+        <v>0.3052376211915467</v>
+      </c>
+      <c r="DF6">
+        <v>0.8295606437073731</v>
       </c>
       <c r="DG6">
-        <v>0.8251030245028923</v>
+        <v>0.7250089317079772</v>
+      </c>
+      <c r="DH6">
+        <v>0.338928519227368</v>
       </c>
       <c r="DI6">
-        <v>0.3463173072287914</v>
+        <v>0.293707881439459</v>
       </c>
       <c r="DJ6">
-        <v>0.8619863887252531</v>
+        <v>0.7082157043355265</v>
+      </c>
+      <c r="DK6">
+        <v>0.5910271984202888</v>
       </c>
       <c r="DL6">
-        <v>0.9355154433141655</v>
+        <v>0.8356655202400917</v>
+      </c>
+      <c r="DM6">
+        <v>0.4674841677674509</v>
+      </c>
+      <c r="DN6">
+        <v>0.8658439953391867</v>
       </c>
       <c r="DO6">
-        <v>0.5315230589182445</v>
+        <v>0.3571579908134203</v>
+      </c>
+      <c r="DP6">
+        <v>0.3733844047616279</v>
+      </c>
+      <c r="DQ6">
+        <v>1.155388320786926</v>
+      </c>
+      <c r="DR6">
+        <v>0.2272459520051633</v>
       </c>
       <c r="DS6">
-        <v>0.6565678694615504</v>
+        <v>0.5992393502703022</v>
+      </c>
+      <c r="DT6">
+        <v>0.273906420327424</v>
       </c>
       <c r="DU6">
-        <v>0.8516300166351487</v>
+        <v>0.8492187910326852</v>
       </c>
       <c r="DV6">
-        <v>1.505248632553599</v>
+        <v>1.521543921526402</v>
       </c>
       <c r="DW6">
-        <v>0.5946662539403363</v>
+        <v>0.7386717378195381</v>
       </c>
       <c r="DX6">
-        <v>1.082310333488894</v>
+        <v>0.4213235464312298</v>
+      </c>
+      <c r="DY6">
+        <v>0.6223713633999522</v>
+      </c>
+      <c r="DZ6">
+        <v>0.8199623396869334</v>
+      </c>
+      <c r="EB6">
+        <v>0.8670487896409682</v>
+      </c>
+      <c r="EC6">
+        <v>0.5917431840097886</v>
+      </c>
+      <c r="ED6">
+        <v>0.466103010111047</v>
+      </c>
+      <c r="EE6">
+        <v>0.5591445699746744</v>
+      </c>
+      <c r="EF6">
+        <v>0.5132104072925345</v>
+      </c>
+      <c r="EG6">
+        <v>0.3179123854738218</v>
+      </c>
+      <c r="EH6">
+        <v>0.528238755374403</v>
+      </c>
+      <c r="EI6">
+        <v>0.8652661928663216</v>
+      </c>
+      <c r="EJ6">
+        <v>0.646740293337329</v>
+      </c>
+      <c r="EK6">
+        <v>0.5542395386265012</v>
+      </c>
+      <c r="EL6">
+        <v>1.274797471778981</v>
       </c>
       <c r="EM6">
-        <v>1.092796790089485</v>
+        <v>0.6443668060051769</v>
       </c>
       <c r="EN6">
-        <v>0.7229028090937764</v>
+        <v>0.3855326527897486</v>
       </c>
       <c r="EO6">
-        <v>0.8066717914477259</v>
+        <v>1.283808173015872</v>
       </c>
       <c r="EP6">
-        <v>0.8040239783311371</v>
+        <v>0.8537707845588496</v>
       </c>
       <c r="EQ6">
-        <v>0.8768223888415185</v>
+        <v>0.2710934561299137</v>
+      </c>
+      <c r="ER6">
+        <v>0.9923214239734895</v>
+      </c>
+      <c r="ES6">
+        <v>0.354857677504814</v>
       </c>
       <c r="ET6">
-        <v>0.583152306742892</v>
+        <v>0.3961501892677907</v>
+      </c>
+      <c r="EU6">
+        <v>0.4165928542879347</v>
       </c>
       <c r="EV6">
-        <v>0.6159169648426369</v>
+        <v>0.899273235698145</v>
+      </c>
+      <c r="EW6">
+        <v>0.461101596060195</v>
       </c>
       <c r="EX6">
-        <v>0.9515464275393295</v>
+        <v>0.7044320796220622</v>
+      </c>
+      <c r="EY6">
+        <v>0.3228540270921941</v>
+      </c>
+      <c r="EZ6">
+        <v>0.5133279277361299</v>
       </c>
       <c r="FA6">
-        <v>0.8100315567113546</v>
+        <v>0.3175275360864383</v>
+      </c>
+      <c r="FB6">
+        <v>0.5810074071171091</v>
+      </c>
+      <c r="FC6">
+        <v>0.682058305984145</v>
+      </c>
+      <c r="FD6">
+        <v>0.3761772809305124</v>
       </c>
       <c r="FE6">
-        <v>0.8181434183569947</v>
+        <v>0.5935219083812955</v>
       </c>
       <c r="FF6">
-        <v>0.6044264525326475</v>
+        <v>0.3763177288494318</v>
       </c>
       <c r="FG6">
-        <v>0.7223111692146873</v>
+        <v>0.2062155590329892</v>
+      </c>
+      <c r="FH6">
+        <v>0.3536185301460956</v>
+      </c>
+      <c r="FI6">
+        <v>0.655148685419084</v>
+      </c>
+      <c r="FJ6">
+        <v>0.2840938734179153</v>
+      </c>
+      <c r="FK6">
+        <v>1.01270212654587</v>
       </c>
       <c r="FL6">
-        <v>0.8000573172368337</v>
+        <v>1.22943144129359</v>
+      </c>
+      <c r="FM6">
+        <v>0.8963950176290888</v>
       </c>
       <c r="FN6">
-        <v>0.635669451756243</v>
+        <v>0.622326309377827</v>
       </c>
       <c r="FO6">
-        <v>0.6750565897103754</v>
+        <v>0.7516771439008804</v>
+      </c>
+      <c r="FP6">
+        <v>0.80772502711031</v>
       </c>
       <c r="FQ6">
-        <v>0.8151939313120679</v>
+        <v>0.7682069147929957</v>
       </c>
       <c r="FR6">
-        <v>0.6736765045057093</v>
+        <v>0.3032860500844776</v>
+      </c>
+      <c r="FS6">
+        <v>0.8849365366640058</v>
+      </c>
+      <c r="FT6">
+        <v>0.6065824242115418</v>
+      </c>
+      <c r="FU6">
+        <v>1.252149794289352</v>
       </c>
       <c r="FV6">
-        <v>0.5217845566842275</v>
+        <v>0.2863522869363206</v>
       </c>
       <c r="FW6">
-        <v>0.8450107201946114</v>
+        <v>0.6319856248001881</v>
+      </c>
+      <c r="FX6">
+        <v>1.369963838317663</v>
       </c>
       <c r="FY6">
-        <v>0.6280486533123124</v>
+        <v>0.8171621882006327</v>
+      </c>
+      <c r="FZ6">
+        <v>1.134058598228403</v>
+      </c>
+      <c r="GA6">
+        <v>0.3529493593439829</v>
       </c>
       <c r="GB6">
-        <v>1.325814914641736</v>
+        <v>1.555752787673758</v>
       </c>
       <c r="GC6">
-        <v>1.376317818126336</v>
+        <v>3.424526079237767</v>
       </c>
       <c r="GD6">
-        <v>0.7290179907153259</v>
+        <v>0.7177315693628545</v>
+      </c>
+      <c r="GE6">
+        <v>0.9461609349301243</v>
       </c>
       <c r="GG6">
-        <v>0.8560210009669743</v>
+        <v>1.067077661531785</v>
+      </c>
+      <c r="GH6">
+        <v>0.376376047340847</v>
+      </c>
+      <c r="GI6">
+        <v>2.43299566175438</v>
       </c>
       <c r="GJ6">
-        <v>1.462533596723707</v>
+        <v>1.353620847570283</v>
+      </c>
+      <c r="GK6">
+        <v>0.771796533428857</v>
       </c>
       <c r="GL6">
-        <v>0.5404607113210111</v>
+        <v>1.224574271013766</v>
+      </c>
+      <c r="GM6">
+        <v>1.397022169599224</v>
       </c>
       <c r="GN6">
-        <v>0.5307040472672327</v>
+        <v>0.5308569768569514</v>
       </c>
       <c r="GO6">
-        <v>0.5635174066938089</v>
+        <v>2.044902026065495</v>
+      </c>
+      <c r="GP6">
+        <v>0.3296003376104242</v>
+      </c>
+      <c r="GQ6">
+        <v>0.2478663519977783</v>
+      </c>
+      <c r="GR6">
+        <v>0.6889302189682758</v>
       </c>
     </row>
     <row r="7" spans="1:201">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.3828541209735858</v>
-      </c>
       <c r="C7">
-        <v>0.6380673339920568</v>
+        <v>1.601663722783237</v>
       </c>
       <c r="D7">
-        <v>0.5605816500052768</v>
+        <v>1.084274072762254</v>
+      </c>
+      <c r="E7">
+        <v>0.3122976889191604</v>
       </c>
       <c r="F7">
-        <v>0.7298407012474618</v>
-      </c>
-      <c r="G7">
-        <v>0.7367940070227503</v>
+        <v>0.4907477791991378</v>
       </c>
       <c r="H7">
-        <v>0.3972593838333455</v>
-      </c>
-      <c r="I7">
-        <v>1.493046359230201</v>
+        <v>2.1821115892801</v>
+      </c>
+      <c r="J7">
+        <v>0.543044636609136</v>
+      </c>
+      <c r="K7">
+        <v>0.6060600738928441</v>
       </c>
       <c r="L7">
-        <v>0.6625942498754746</v>
+        <v>0.7314694063121291</v>
+      </c>
+      <c r="M7">
+        <v>0.4185517940113856</v>
       </c>
       <c r="N7">
-        <v>0.5682747579559169</v>
-      </c>
-      <c r="R7">
-        <v>0.6504314179891659</v>
+        <v>0.35901030364435</v>
+      </c>
+      <c r="O7">
+        <v>1.481002532907203</v>
+      </c>
+      <c r="P7">
+        <v>0.7782509595564296</v>
+      </c>
+      <c r="Q7">
+        <v>0.5360905739327697</v>
       </c>
       <c r="T7">
-        <v>0.9756378717489917</v>
+        <v>1.065937727583492</v>
+      </c>
+      <c r="U7">
+        <v>0.9326130335332521</v>
       </c>
       <c r="V7">
-        <v>1.197617721481843</v>
-      </c>
-      <c r="X7">
-        <v>2.034406501894152</v>
+        <v>0.6455862228175006</v>
+      </c>
+      <c r="W7">
+        <v>0.5242476445178698</v>
       </c>
       <c r="Y7">
-        <v>0.7587857520651223</v>
+        <v>0.7998449637364198</v>
       </c>
       <c r="Z7">
-        <v>0.5173923485696409</v>
+        <v>0.8029227022691356</v>
       </c>
       <c r="AA7">
-        <v>1.111457374401704</v>
+        <v>0.6267943516139369</v>
       </c>
       <c r="AC7">
-        <v>0.545060978290059</v>
-      </c>
-      <c r="AD7">
-        <v>0.4481520122588004</v>
+        <v>0.7677130105609348</v>
       </c>
       <c r="AE7">
-        <v>1.186793920008254</v>
+        <v>1.391695468838524</v>
+      </c>
+      <c r="AF7">
+        <v>1.709253992414387</v>
+      </c>
+      <c r="AG7">
+        <v>1.302112825316579</v>
       </c>
       <c r="AH7">
-        <v>0.4755368626617297</v>
+        <v>1.226401191096536</v>
       </c>
       <c r="AI7">
-        <v>0.8321534547394764</v>
+        <v>0.5984283611853796</v>
       </c>
       <c r="AJ7">
-        <v>0.7694911964542835</v>
+        <v>0.4419256304300592</v>
       </c>
       <c r="AK7">
-        <v>1.182380904883906</v>
+        <v>0.6174046267325205</v>
       </c>
       <c r="AL7">
-        <v>0.3337184790548753</v>
+        <v>2.585840206202101</v>
       </c>
       <c r="AM7">
-        <v>1.50296907265713</v>
+        <v>0.4777239018997804</v>
       </c>
       <c r="AO7">
-        <v>0.4481087612751669</v>
+        <v>0.5110840523845475</v>
       </c>
       <c r="AP7">
-        <v>1.311884932952545</v>
+        <v>0.7729301665459336</v>
       </c>
       <c r="AQ7">
-        <v>3.336487316262481</v>
+        <v>0.928379392867734</v>
       </c>
       <c r="AR7">
-        <v>0.8797093691978284</v>
+        <v>0.2546626318323157</v>
+      </c>
+      <c r="AS7">
+        <v>2.004493402020831</v>
       </c>
       <c r="AT7">
-        <v>0.5420486601564271</v>
+        <v>1.09483041704899</v>
+      </c>
+      <c r="AU7">
+        <v>0.7689964071908344</v>
       </c>
       <c r="AV7">
-        <v>1.577287630129974</v>
+        <v>0.3810069971572424</v>
       </c>
       <c r="AW7">
-        <v>0.9175666027156441</v>
+        <v>2.266177468836386</v>
       </c>
       <c r="AX7">
-        <v>0.3266200522374875</v>
+        <v>0.3313583812915697</v>
+      </c>
+      <c r="AY7">
+        <v>1.953565694005696</v>
       </c>
       <c r="AZ7">
-        <v>0.8922926140315535</v>
+        <v>0.3607777157265227</v>
       </c>
       <c r="BA7">
-        <v>1.249635600458189</v>
+        <v>1.049221344253645</v>
       </c>
       <c r="BB7">
-        <v>0.6587004338668243</v>
+        <v>1.165388931637195</v>
       </c>
       <c r="BC7">
-        <v>0.7190841829803746</v>
+        <v>0.6539193649361238</v>
+      </c>
+      <c r="BD7">
+        <v>0.4001581933838658</v>
       </c>
       <c r="BE7">
-        <v>0.605638265090235</v>
+        <v>0.8594828187340575</v>
       </c>
       <c r="BF7">
-        <v>0.6598853407719812</v>
+        <v>0.3511053359138223</v>
       </c>
       <c r="BG7">
-        <v>0.6341480854180044</v>
+        <v>0.4533282570415352</v>
+      </c>
+      <c r="BH7">
+        <v>0.8713692143302944</v>
       </c>
       <c r="BI7">
-        <v>0.4028610882762829</v>
+        <v>1.218119126512278</v>
       </c>
       <c r="BJ7">
-        <v>0.6002782185252795</v>
+        <v>0.4416800797296587</v>
+      </c>
+      <c r="BK7">
+        <v>0.5444078272904977</v>
       </c>
       <c r="BL7">
-        <v>1.079180598364745</v>
+        <v>0.3239207845243028</v>
       </c>
       <c r="BM7">
-        <v>0.3655315495718155</v>
+        <v>0.4033591697691726</v>
+      </c>
+      <c r="BN7">
+        <v>0.7521448895376981</v>
+      </c>
+      <c r="BO7">
+        <v>0.8671009562131965</v>
+      </c>
+      <c r="BP7">
+        <v>0.5761692732872256</v>
+      </c>
+      <c r="BQ7">
+        <v>0.4656333911596351</v>
       </c>
       <c r="BR7">
-        <v>0.5208127526361617</v>
+        <v>0.8555177184433649</v>
       </c>
       <c r="BS7">
-        <v>0.7988007625841602</v>
+        <v>0.308267395989723</v>
       </c>
       <c r="BT7">
-        <v>0.2341602527903681</v>
+        <v>1.186558088131175</v>
       </c>
       <c r="BU7">
-        <v>0.3356300278573182</v>
+        <v>0.4049853411387216</v>
       </c>
       <c r="BV7">
-        <v>0.181858713163172</v>
+        <v>0.5532863639180589</v>
       </c>
       <c r="BW7">
-        <v>0.4666053188800813</v>
+        <v>0.7503815631281349</v>
       </c>
       <c r="BX7">
-        <v>0.5517881054807992</v>
-      </c>
-      <c r="CA7">
-        <v>0.5662558298668268</v>
+        <v>0.265664553211862</v>
+      </c>
+      <c r="BY7">
+        <v>0.4646874941455377</v>
+      </c>
+      <c r="BZ7">
+        <v>1.065322975782722</v>
       </c>
       <c r="CB7">
-        <v>0.601292321204001</v>
+        <v>0.3608233189225971</v>
       </c>
       <c r="CC7">
-        <v>0.454060013479734</v>
+        <v>0.2337719886339241</v>
       </c>
       <c r="CD7">
-        <v>0.8458184140761905</v>
+        <v>0.3326259422601073</v>
       </c>
       <c r="CE7">
-        <v>0.4880339204975594</v>
+        <v>0.6246254067250019</v>
       </c>
       <c r="CF7">
-        <v>0.4583554415568328</v>
+        <v>0.3271651602337376</v>
       </c>
       <c r="CG7">
-        <v>0.8298258893145024</v>
+        <v>0.5229056346527179</v>
       </c>
       <c r="CH7">
-        <v>0.3058791453204857</v>
-      </c>
-      <c r="CJ7">
-        <v>0.7231297302003391</v>
+        <v>0.8196396312663279</v>
+      </c>
+      <c r="CI7">
+        <v>0.2929223498158811</v>
       </c>
       <c r="CK7">
-        <v>0.4684617250013848</v>
+        <v>0.8067810084664135</v>
+      </c>
+      <c r="CL7">
+        <v>0.8808343996636601</v>
       </c>
       <c r="CM7">
-        <v>0.8198136716373285</v>
+        <v>0.930623588568697</v>
       </c>
       <c r="CN7">
-        <v>0.8644708890253627</v>
+        <v>0.4153709357767474</v>
+      </c>
+      <c r="CO7">
+        <v>0.69340776019523</v>
       </c>
       <c r="CP7">
-        <v>0.9585695877458769</v>
+        <v>0.7377730227643666</v>
       </c>
       <c r="CQ7">
-        <v>0.3832831625989789</v>
+        <v>0.5494211208743766</v>
+      </c>
+      <c r="CR7">
+        <v>0.5595099620590226</v>
       </c>
       <c r="CS7">
-        <v>0.6475054923940966</v>
+        <v>0.3524375227518734</v>
+      </c>
+      <c r="CT7">
+        <v>0.3942447566384044</v>
+      </c>
+      <c r="CU7">
+        <v>0.3682843397367848</v>
+      </c>
+      <c r="CV7">
+        <v>0.5775341294370807</v>
       </c>
       <c r="CW7">
-        <v>0.7075677409924861</v>
+        <v>0.7996135279449745</v>
       </c>
       <c r="CX7">
-        <v>0.5979310444303468</v>
+        <v>0.5884788103905579</v>
+      </c>
+      <c r="CY7">
+        <v>0.2693255144809895</v>
+      </c>
+      <c r="CZ7">
+        <v>0.1654312453081784</v>
       </c>
       <c r="DA7">
-        <v>0.6580232589733654</v>
+        <v>0.3656003134060061</v>
       </c>
       <c r="DB7">
-        <v>0.7229797440162301</v>
+        <v>0.5778737899020165</v>
       </c>
       <c r="DD7">
-        <v>0.771543504707475</v>
+        <v>0.7154629760547665</v>
       </c>
       <c r="DE7">
-        <v>0.6217210283098689</v>
+        <v>0.6163454484881939</v>
+      </c>
+      <c r="DF7">
+        <v>0.720912175852865</v>
       </c>
       <c r="DG7">
-        <v>0.8841614043471397</v>
+        <v>0.5999056283060109</v>
+      </c>
+      <c r="DH7">
+        <v>0.2015275788298889</v>
       </c>
       <c r="DI7">
-        <v>0.3443234735304677</v>
+        <v>0.3056127897491774</v>
       </c>
       <c r="DJ7">
-        <v>0.6213915697391469</v>
+        <v>0.7861758960263556</v>
       </c>
       <c r="DK7">
-        <v>0.6100852109274234</v>
+        <v>0.4074194072882849</v>
       </c>
       <c r="DL7">
-        <v>0.682140685919805</v>
+        <v>0.5435776148587378</v>
+      </c>
+      <c r="DM7">
+        <v>0.5996646699430918</v>
+      </c>
+      <c r="DN7">
+        <v>0.5637269792547869</v>
       </c>
       <c r="DO7">
-        <v>0.6416989652690543</v>
+        <v>0.471288468291756</v>
+      </c>
+      <c r="DP7">
+        <v>0.4429042760480972</v>
+      </c>
+      <c r="DQ7">
+        <v>0.7943689399611749</v>
+      </c>
+      <c r="DR7">
+        <v>0.2404962269432334</v>
       </c>
       <c r="DS7">
-        <v>0.5809306952579395</v>
+        <v>0.5048142365674414</v>
+      </c>
+      <c r="DT7">
+        <v>0.3251386911476908</v>
       </c>
       <c r="DU7">
-        <v>0.8059628203102518</v>
+        <v>0.7823696789853698</v>
       </c>
       <c r="DV7">
-        <v>0.7961096169552514</v>
+        <v>0.6776597342190417</v>
+      </c>
+      <c r="DW7">
+        <v>0.6529232355079277</v>
       </c>
       <c r="DX7">
-        <v>0.5384321748233489</v>
+        <v>0.5152485016884382</v>
+      </c>
+      <c r="DY7">
+        <v>0.6780935199170778</v>
+      </c>
+      <c r="DZ7">
+        <v>0.6476968071501804</v>
+      </c>
+      <c r="EA7">
+        <v>1.036793144241298</v>
+      </c>
+      <c r="EB7">
+        <v>0.7063467921548329</v>
+      </c>
+      <c r="EC7">
+        <v>0.922210413322845</v>
+      </c>
+      <c r="ED7">
+        <v>0.3870564968423526</v>
+      </c>
+      <c r="EE7">
+        <v>0.5512678827580778</v>
+      </c>
+      <c r="EF7">
+        <v>0.4040041415418112</v>
       </c>
       <c r="EG7">
-        <v>0.487864836225136</v>
+        <v>0.4271209425469141</v>
+      </c>
+      <c r="EH7">
+        <v>0.5144457677934653</v>
+      </c>
+      <c r="EI7">
+        <v>0.7739782401953295</v>
+      </c>
+      <c r="EJ7">
+        <v>0.5619516228839865</v>
+      </c>
+      <c r="EK7">
+        <v>0.5406794115902676</v>
+      </c>
+      <c r="EL7">
+        <v>0.82688012680136</v>
       </c>
       <c r="EM7">
-        <v>0.6449443782570766</v>
+        <v>0.3216403720407742</v>
       </c>
       <c r="EN7">
-        <v>0.5584700984836168</v>
+        <v>0.4554454631313552</v>
       </c>
       <c r="EO7">
-        <v>0.4691807910669562</v>
+        <v>0.9129108172753604</v>
       </c>
       <c r="EP7">
-        <v>0.6579450831990563</v>
+        <v>0.3416121217444371</v>
       </c>
       <c r="EQ7">
-        <v>0.7189777512929435</v>
+        <v>0.4293507370824811</v>
+      </c>
+      <c r="ER7">
+        <v>0.5648521816727988</v>
+      </c>
+      <c r="ES7">
+        <v>0.3942157885625171</v>
       </c>
       <c r="ET7">
-        <v>0.5795471258096</v>
+        <v>0.491673664686286</v>
+      </c>
+      <c r="EU7">
+        <v>0.406778855104703</v>
+      </c>
+      <c r="EV7">
+        <v>0.7377701975930279</v>
+      </c>
+      <c r="EW7">
+        <v>0.6503709213726768</v>
       </c>
       <c r="EX7">
-        <v>1.081996348224391</v>
+        <v>0.7106286837318067</v>
       </c>
       <c r="EY7">
-        <v>0.7329781807269623</v>
+        <v>0.2768707502056542</v>
+      </c>
+      <c r="EZ7">
+        <v>0.3667186211068352</v>
+      </c>
+      <c r="FA7">
+        <v>0.2988182966606465</v>
+      </c>
+      <c r="FB7">
+        <v>0.5875946453750002</v>
+      </c>
+      <c r="FC7">
+        <v>0.5550063460690063</v>
+      </c>
+      <c r="FD7">
+        <v>0.2977825413858162</v>
       </c>
       <c r="FE7">
-        <v>0.9266856027620983</v>
+        <v>0.5514193344751737</v>
       </c>
       <c r="FF7">
-        <v>0.4778179532917849</v>
+        <v>0.2803464852602121</v>
       </c>
       <c r="FG7">
-        <v>0.8288822273919129</v>
+        <v>0.1707404014828631</v>
+      </c>
+      <c r="FH7">
+        <v>0.3905178040287037</v>
+      </c>
+      <c r="FI7">
+        <v>0.4865313870842793</v>
+      </c>
+      <c r="FJ7">
+        <v>0.2294819794812246</v>
+      </c>
+      <c r="FK7">
+        <v>1.058949937544145</v>
       </c>
       <c r="FL7">
-        <v>0.444147582367092</v>
+        <v>0.9567145534688157</v>
+      </c>
+      <c r="FM7">
+        <v>0.8201218066603339</v>
       </c>
       <c r="FN7">
-        <v>0.453158310030389</v>
-      </c>
-      <c r="FO7">
-        <v>0.5911784387913059</v>
+        <v>0.5295664376037138</v>
+      </c>
+      <c r="FP7">
+        <v>0.8825578098982945</v>
       </c>
       <c r="FQ7">
-        <v>0.9337967269730091</v>
+        <v>0.6944371384420623</v>
       </c>
       <c r="FR7">
-        <v>0.6786820031004382</v>
+        <v>0.325029686517654</v>
+      </c>
+      <c r="FS7">
+        <v>0.923915047384163</v>
+      </c>
+      <c r="FT7">
+        <v>0.4617519782951701</v>
+      </c>
+      <c r="FU7">
+        <v>0.9307752109717458</v>
+      </c>
+      <c r="FV7">
+        <v>0.3179999740078053</v>
+      </c>
+      <c r="FW7">
+        <v>0.4722269628507286</v>
+      </c>
+      <c r="FX7">
+        <v>1.274022889883862</v>
+      </c>
+      <c r="FY7">
+        <v>0.8054499683242538</v>
+      </c>
+      <c r="FZ7">
+        <v>1.067768381262466</v>
+      </c>
+      <c r="GA7">
+        <v>0.3367752681128591</v>
       </c>
       <c r="GB7">
-        <v>1.294585361118262</v>
+        <v>1.667231214367772</v>
       </c>
       <c r="GC7">
-        <v>1.383612509137516</v>
+        <v>2.390055913433911</v>
       </c>
       <c r="GD7">
-        <v>0.543027100512761</v>
+        <v>0.697710861646005</v>
+      </c>
+      <c r="GE7">
+        <v>0.6546138315718042</v>
+      </c>
+      <c r="GG7">
+        <v>0.9231396511043469</v>
+      </c>
+      <c r="GH7">
+        <v>0.3120687963650101</v>
+      </c>
+      <c r="GI7">
+        <v>2.083263937038645</v>
+      </c>
+      <c r="GJ7">
+        <v>1.738814322804517</v>
+      </c>
+      <c r="GK7">
+        <v>0.7963747953986551</v>
+      </c>
+      <c r="GL7">
+        <v>0.9721712854391121</v>
+      </c>
+      <c r="GM7">
+        <v>1.285503980426717</v>
+      </c>
+      <c r="GN7">
+        <v>0.3584914430799883</v>
+      </c>
+      <c r="GO7">
+        <v>1.650337340463301</v>
+      </c>
+      <c r="GP7">
+        <v>0.2478963661493445</v>
+      </c>
+      <c r="GQ7">
+        <v>0.2579441166193563</v>
+      </c>
+      <c r="GR7">
+        <v>0.4616662358035911</v>
       </c>
     </row>
   </sheetData>
